--- a/math/2.nguyen_ham_tich_phan.xlsx
+++ b/math/2.nguyen_ham_tich_phan.xlsx
@@ -1,29 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Nguyen_Ham" sheetId="1" r:id="rId1"/>
+    <sheet name="Tich_Phan" sheetId="5" r:id="rId2"/>
+    <sheet name="cong_thuc_nguyen_ham" sheetId="3" r:id="rId3"/>
+    <sheet name="can_va_mu" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>Tính chất của lũy thừa</t>
+  </si>
+  <si>
+    <t>Tính chất của căn bậc n</t>
+  </si>
+  <si>
+    <t>Định nghĩa</t>
+  </si>
+  <si>
+    <t>Cho hàm số f(x) xác định trên K</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hàm số F(x) được gọi là nguyên hàm của hàm số f(x) trên K nếu F'(x) = f(x) với mọi x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϵ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> k</t>
+    </r>
+  </si>
+  <si>
+    <t>Kí Hiệu</t>
+  </si>
+  <si>
+    <t>Với C là hằng số</t>
+  </si>
+  <si>
+    <t>Phương pháp tính nguyên hàm</t>
+  </si>
+  <si>
+    <t>PP đổi biến số</t>
+  </si>
+  <si>
+    <t>Tính chất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP tính nguyên hàm từng phần </t>
+  </si>
+  <si>
+    <t>Cho hàm số f(x) là hàm số liên tục trên đoạn [a;b]. Giả sử F(x) là nguyên hàm của hàm số f(x) trên đoạn [a;b]</t>
+  </si>
+  <si>
+    <t>Hiệu số F(b) - F(a) được gọi là tích phân từ a đến b của hàm số f(x)</t>
+  </si>
+  <si>
+    <t>Kí hiệu</t>
+  </si>
+  <si>
+    <t>Ý nghĩa hình học</t>
+  </si>
+  <si>
+    <t>Nếu hàm số f(x) liên tục và không âm trên đoạn [a;b] thì tích phân trên [a;b] là diện tích S của hình thang cong giới hạn bởi đồ thị của f(x) và trục Ox và 2 đường thẳng x=a, x = b</t>
+  </si>
+  <si>
+    <t>PP Tính tích phân</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,15 +138,831 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495457</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="1234440"/>
+          <a:ext cx="1806097" cy="480102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571758</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="2545080"/>
+          <a:ext cx="2979678" cy="579170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366053</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3291840"/>
+          <a:ext cx="3383573" cy="563929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>282439</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="4511040"/>
+          <a:ext cx="5761219" cy="5296359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160509</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>31117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="10058400"/>
+          <a:ext cx="5646909" cy="7346317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114785</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>8064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789420" y="10058400"/>
+          <a:ext cx="5601185" cy="5128704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46277</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>114579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="320040" y="556260"/>
+          <a:ext cx="6431837" cy="3215919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350991</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>114513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403860" y="4053840"/>
+          <a:ext cx="5433531" cy="2461473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152942</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>122089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6949440"/>
+          <a:ext cx="6248942" cy="1950889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252063</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>7795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9326880"/>
+          <a:ext cx="6957663" cy="2019475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419280</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>175308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="259080" y="18097500"/>
+          <a:ext cx="2072820" cy="548688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>343150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="510540" y="1036320"/>
+          <a:ext cx="2880610" cy="784928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45912</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="2583180"/>
+          <a:ext cx="2217612" cy="1935648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381139</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2560320"/>
+          <a:ext cx="1600339" cy="937341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297516</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5097780"/>
+          <a:ext cx="3878916" cy="2187130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="bang-nguyen-ham-cac-ham-so-thuong-gap"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="342900"/>
+          <a:ext cx="4312920" cy="7170420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="nguyen-ham-cac-ham-so-co-ban"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="365760"/>
+          <a:ext cx="4541520" cy="4556760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="cong-thuc-luy-thua-can-bac-n-mathvn.com-1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="7932420" cy="6294120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="cong-thuc-luy-thua-can-bac-n-mathvn.com-3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7132320"/>
+          <a:ext cx="9822180" cy="6652260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,37 +1251,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="O140" sqref="O140"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>